--- a/TestDataXls/tutor_markattend.xlsx
+++ b/TestDataXls/tutor_markattend.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23772280-F62B-432C-B4C0-5C235B16B0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mark_attend" sheetId="1" r:id="rId1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="93">
   <si>
     <t>password</t>
   </si>
@@ -269,9 +270,6 @@
     <t>tutor38@nkt.com</t>
   </si>
   <si>
-    <t xml:space="preserve"> Mvg date wed</t>
-  </si>
-  <si>
     <t>Holley W.</t>
   </si>
   <si>
@@ -284,19 +282,25 @@
     <t>sundar@gmail.com</t>
   </si>
   <si>
-    <t>Hari</t>
-  </si>
-  <si>
-    <t>Arun</t>
-  </si>
-  <si>
     <t>Folk grade-2</t>
+  </si>
+  <si>
+    <t>tutor53@nkt.com</t>
+  </si>
+  <si>
+    <t>PHP session 3</t>
+  </si>
+  <si>
+    <t>Dortha V.</t>
+  </si>
+  <si>
+    <t>Vrieze</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -486,6 +490,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -521,6 +542,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -696,43 +734,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" customWidth="1"/>
-    <col min="5" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="34.5703125" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" customWidth="1"/>
-    <col min="13" max="13" width="22.140625" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" customWidth="1"/>
+    <col min="5" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="9" width="15.6640625" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="34.5546875" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="13" max="13" width="22.109375" customWidth="1"/>
+    <col min="14" max="14" width="11.88671875" customWidth="1"/>
+    <col min="15" max="15" width="7.6640625" customWidth="1"/>
     <col min="16" max="16" width="15" customWidth="1"/>
     <col min="17" max="17" width="16" customWidth="1"/>
-    <col min="18" max="18" width="19.85546875" style="3" customWidth="1"/>
+    <col min="18" max="18" width="19.88671875" style="3" customWidth="1"/>
     <col min="19" max="19" width="14" customWidth="1"/>
-    <col min="20" max="21" width="15.140625" customWidth="1"/>
-    <col min="22" max="23" width="14.5703125" style="3" customWidth="1"/>
-    <col min="24" max="25" width="14.140625" style="3" customWidth="1"/>
-    <col min="26" max="26" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.7109375" customWidth="1"/>
-    <col min="28" max="28" width="10.85546875" customWidth="1"/>
+    <col min="20" max="21" width="15.109375" customWidth="1"/>
+    <col min="22" max="23" width="14.5546875" style="3" customWidth="1"/>
+    <col min="24" max="25" width="14.109375" style="3" customWidth="1"/>
+    <col min="26" max="26" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.6640625" customWidth="1"/>
+    <col min="28" max="28" width="10.88671875" customWidth="1"/>
     <col min="29" max="29" width="30" customWidth="1"/>
-    <col min="30" max="30" width="5.28515625" customWidth="1"/>
-    <col min="31" max="31" width="16.42578125" customWidth="1"/>
+    <col min="30" max="30" width="5.33203125" customWidth="1"/>
+    <col min="31" max="31" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -771,7 +809,7 @@
       <c r="U1" s="3"/>
       <c r="AA1" s="3"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -817,18 +855,18 @@
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>12</v>
@@ -837,7 +875,7 @@
         <v>26</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>24</v>
@@ -853,7 +891,7 @@
       </c>
       <c r="R3" s="6"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -889,18 +927,18 @@
       </c>
       <c r="R4" s="6"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>12</v>
@@ -909,13 +947,13 @@
         <v>14</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="I5" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J5" s="5">
         <v>3</v>
@@ -925,7 +963,7 @@
       </c>
       <c r="R5" s="6"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -942,10 +980,10 @@
         <v>14</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I6" s="5">
         <v>5</v>
@@ -958,42 +996,42 @@
       </c>
       <c r="R6" s="6"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D7" s="1"/>
       <c r="R7" s="6"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D8" s="1"/>
       <c r="R8" s="6"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D9" s="1"/>
       <c r="R9" s="6"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D10" s="1"/>
       <c r="R10" s="6"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D11" s="1"/>
       <c r="R11" s="6"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D12" s="1"/>
       <c r="R12" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="E2" r:id="rId2"/>
-    <hyperlink ref="D3" r:id="rId3"/>
-    <hyperlink ref="E3" r:id="rId4"/>
-    <hyperlink ref="E4" r:id="rId5"/>
-    <hyperlink ref="D4" r:id="rId6"/>
-    <hyperlink ref="E5" r:id="rId7"/>
-    <hyperlink ref="D5" r:id="rId8"/>
-    <hyperlink ref="E6" r:id="rId9"/>
-    <hyperlink ref="D6" r:id="rId10"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId11"/>
@@ -1001,22 +1039,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1030,7 +1068,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1044,7 +1082,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1058,7 +1096,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1072,7 +1110,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1086,7 +1124,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1100,7 +1138,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1114,7 +1152,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1128,7 +1166,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1142,7 +1180,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1156,7 +1194,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1170,7 +1208,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1184,7 +1222,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1198,7 +1236,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1212,7 +1250,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1226,7 +1264,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1240,12 +1278,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C17" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1256,10 +1294,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1270,10 +1308,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1287,7 +1325,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1301,7 +1339,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1315,7 +1353,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1329,7 +1367,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -1343,7 +1381,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -1357,7 +1395,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -1371,7 +1409,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -1385,7 +1423,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -1399,7 +1437,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -1413,7 +1451,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -1427,7 +1465,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -1441,7 +1479,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -1455,7 +1493,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -1469,7 +1507,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -1483,7 +1521,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -1497,7 +1535,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -1511,7 +1549,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -1522,10 +1560,10 @@
         <v>1</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -1539,7 +1577,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -1553,7 +1591,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -1567,7 +1605,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -1581,7 +1619,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -1595,7 +1633,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -1609,7 +1647,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -1623,7 +1661,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -1637,7 +1675,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -1651,7 +1689,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -1665,7 +1703,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -1679,7 +1717,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -1693,7 +1731,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -1707,7 +1745,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -1721,7 +1759,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -1735,7 +1773,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -1749,7 +1787,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -1763,7 +1801,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -1777,7 +1815,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -1791,7 +1829,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -1805,7 +1843,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>17</v>
       </c>
@@ -1819,7 +1857,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>17</v>
       </c>
@@ -1833,7 +1871,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>17</v>
       </c>
@@ -1847,7 +1885,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -1861,7 +1899,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -1875,7 +1913,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -1889,7 +1927,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>17</v>
       </c>
@@ -1903,7 +1941,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -1917,7 +1955,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>17</v>
       </c>
@@ -1931,7 +1969,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>17</v>
       </c>

--- a/TestDataXls/tutor_markattend.xlsx
+++ b/TestDataXls/tutor_markattend.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23772280-F62B-432C-B4C0-5C235B16B0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413A182A-0793-4070-A939-274052A54AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mark_attend" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="52">
   <si>
     <t>password</t>
   </si>
@@ -144,135 +144,12 @@
     <t>tutor39@nkt.com</t>
   </si>
   <si>
-    <t>Dylan C.</t>
-  </si>
-  <si>
-    <t>Jerrod L.</t>
-  </si>
-  <si>
-    <t>Gracie V.</t>
-  </si>
-  <si>
-    <t>Barabara A.</t>
-  </si>
-  <si>
-    <t>Delsie D.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Mvg note3 fri</t>
   </si>
   <si>
-    <t>Dean V.</t>
-  </si>
-  <si>
-    <t>Deane H.</t>
-  </si>
-  <si>
-    <t>Edelmira P.</t>
-  </si>
-  <si>
-    <t>Andrew K.</t>
-  </si>
-  <si>
-    <t>Miesha D.</t>
-  </si>
-  <si>
-    <t>Javier O.</t>
-  </si>
-  <si>
-    <t>Kizzy S.</t>
-  </si>
-  <si>
-    <t>Novella F.</t>
-  </si>
-  <si>
-    <t>German D.</t>
-  </si>
-  <si>
-    <t>Robt B.</t>
-  </si>
-  <si>
-    <t>Rossana B.</t>
-  </si>
-  <si>
-    <t>Henriette G.</t>
-  </si>
-  <si>
-    <t>Buffy S.</t>
-  </si>
-  <si>
-    <t>Christiane O.</t>
-  </si>
-  <si>
-    <t>Annamae L.</t>
-  </si>
-  <si>
-    <t>Vanesa G.</t>
-  </si>
-  <si>
-    <t>Gennie P.</t>
-  </si>
-  <si>
-    <t>Tamra K.</t>
-  </si>
-  <si>
-    <t>Tien K.</t>
-  </si>
-  <si>
-    <t>Malcom L.</t>
-  </si>
-  <si>
-    <t>Claudia G.</t>
-  </si>
-  <si>
-    <t>Malcolm G.</t>
-  </si>
-  <si>
-    <t>Lorita R.</t>
-  </si>
-  <si>
-    <t>Annita L.</t>
-  </si>
-  <si>
-    <t>Eliseo M.</t>
-  </si>
-  <si>
-    <t>Tyisha L.</t>
-  </si>
-  <si>
-    <t>Colene T.</t>
-  </si>
-  <si>
-    <t>Francis S.</t>
-  </si>
-  <si>
-    <t>Lettie H.</t>
-  </si>
-  <si>
-    <t>Chaya M.</t>
-  </si>
-  <si>
-    <t>Terina W.</t>
-  </si>
-  <si>
-    <t>Lisbeth A.</t>
-  </si>
-  <si>
-    <t>Lillian D.</t>
-  </si>
-  <si>
-    <t>Corrina L.</t>
-  </si>
-  <si>
-    <t>Cassie D.</t>
-  </si>
-  <si>
     <t>tutor38@nkt.com</t>
   </si>
   <si>
-    <t>Holley W.</t>
-  </si>
-  <si>
     <t>next</t>
   </si>
   <si>
@@ -285,16 +162,16 @@
     <t>Folk grade-2</t>
   </si>
   <si>
-    <t>tutor53@nkt.com</t>
-  </si>
-  <si>
-    <t>PHP session 3</t>
-  </si>
-  <si>
-    <t>Dortha V.</t>
-  </si>
-  <si>
     <t>Vrieze</t>
+  </si>
+  <si>
+    <t>tutor60@nkt.com</t>
+  </si>
+  <si>
+    <t>MySQL</t>
+  </si>
+  <si>
+    <t>Srinivas E.</t>
   </si>
 </sst>
 </file>
@@ -350,18 +227,9 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -372,7 +240,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -391,7 +259,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -738,7 +605,7 @@
   <dimension ref="A1:AA12"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -828,7 +695,7 @@
       <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>27</v>
       </c>
       <c r="H2" t="s">
@@ -866,7 +733,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>12</v>
@@ -874,8 +741,8 @@
       <c r="F3" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>88</v>
+      <c r="G3" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>24</v>
@@ -910,8 +777,8 @@
       <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>47</v>
+      <c r="G4" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>20</v>
@@ -938,7 +805,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>12</v>
@@ -946,11 +813,11 @@
       <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>90</v>
+      <c r="G5" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I5" s="5">
         <v>1</v>
@@ -971,7 +838,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>12</v>
@@ -979,11 +846,11 @@
       <c r="F6" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>86</v>
+      <c r="G6" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="I6" s="5">
         <v>5</v>
@@ -1041,17 +908,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.109375" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1075,7 +942,7 @@
       <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>1</v>
       </c>
       <c r="D2" t="s">
@@ -1089,7 +956,7 @@
       <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>2</v>
       </c>
       <c r="D3" t="s">
@@ -1103,7 +970,7 @@
       <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>3</v>
       </c>
       <c r="D4" t="s">
@@ -1117,7 +984,7 @@
       <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>2</v>
       </c>
       <c r="D5" t="s">
@@ -1131,7 +998,7 @@
       <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>1</v>
       </c>
       <c r="D6" t="s">
@@ -1145,7 +1012,7 @@
       <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>2</v>
       </c>
       <c r="D7" t="s">
@@ -1159,7 +1026,7 @@
       <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>3</v>
       </c>
       <c r="D8" t="s">
@@ -1173,7 +1040,7 @@
       <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>2</v>
       </c>
       <c r="D9" t="s">
@@ -1187,7 +1054,7 @@
       <c r="B10" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>1</v>
       </c>
       <c r="D10" t="s">
@@ -1201,7 +1068,7 @@
       <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>2</v>
       </c>
       <c r="D11" t="s">
@@ -1215,7 +1082,7 @@
       <c r="B12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>3</v>
       </c>
       <c r="D12" t="s">
@@ -1229,7 +1096,7 @@
       <c r="B13" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>2</v>
       </c>
       <c r="D13" t="s">
@@ -1243,7 +1110,7 @@
       <c r="B14" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>1</v>
       </c>
       <c r="D14" t="s">
@@ -1257,7 +1124,7 @@
       <c r="B15" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>2</v>
       </c>
       <c r="D15" t="s">
@@ -1271,7 +1138,7 @@
       <c r="B16" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <v>3</v>
       </c>
       <c r="D16" t="s">
@@ -1279,7 +1146,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <v>3</v>
       </c>
     </row>
@@ -1290,11 +1157,11 @@
       <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <v>1</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>91</v>
+      <c r="D18" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1302,684 +1169,12 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="9">
+        <v>20</v>
+      </c>
+      <c r="C19" s="8">
         <v>1</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="9">
-        <v>1</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="9">
-        <v>1</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="9">
-        <v>1</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="9">
-        <v>1</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="9">
-        <v>1</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="9">
-        <v>1</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="9">
-        <v>1</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="9">
-        <v>1</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="9">
-        <v>1</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="9">
-        <v>1</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="9">
-        <v>1</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="9">
-        <v>1</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="9">
-        <v>1</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="9">
-        <v>1</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="9">
-        <v>1</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="9">
-        <v>1</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="9">
-        <v>1</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="9">
-        <v>1</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" s="9">
-        <v>1</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>17</v>
-      </c>
-      <c r="B39" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" s="9">
-        <v>1</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>17</v>
-      </c>
-      <c r="B40" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="9">
-        <v>1</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>17</v>
-      </c>
-      <c r="B41" t="s">
-        <v>20</v>
-      </c>
-      <c r="C41" s="9">
-        <v>1</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B42" t="s">
-        <v>20</v>
-      </c>
-      <c r="C42" s="9">
-        <v>1</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B43" t="s">
-        <v>20</v>
-      </c>
-      <c r="C43" s="9">
-        <v>1</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>17</v>
-      </c>
-      <c r="B44" t="s">
-        <v>20</v>
-      </c>
-      <c r="C44" s="9">
-        <v>1</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>17</v>
-      </c>
-      <c r="B45" t="s">
-        <v>20</v>
-      </c>
-      <c r="C45" s="9">
-        <v>1</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>17</v>
-      </c>
-      <c r="B46" t="s">
-        <v>20</v>
-      </c>
-      <c r="C46" s="9">
-        <v>1</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>17</v>
-      </c>
-      <c r="B47" t="s">
-        <v>20</v>
-      </c>
-      <c r="C47" s="9">
-        <v>1</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>17</v>
-      </c>
-      <c r="B48" t="s">
-        <v>20</v>
-      </c>
-      <c r="C48" s="9">
-        <v>1</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>17</v>
-      </c>
-      <c r="B49" t="s">
-        <v>20</v>
-      </c>
-      <c r="C49" s="9">
-        <v>1</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>17</v>
-      </c>
-      <c r="B50" t="s">
-        <v>20</v>
-      </c>
-      <c r="C50" s="9">
-        <v>1</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>17</v>
-      </c>
-      <c r="B51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C51" s="9">
-        <v>1</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>17</v>
-      </c>
-      <c r="B52" t="s">
-        <v>20</v>
-      </c>
-      <c r="C52" s="9">
-        <v>1</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>17</v>
-      </c>
-      <c r="B53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C53" s="9">
-        <v>1</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B54" t="s">
-        <v>20</v>
-      </c>
-      <c r="C54" s="9">
-        <v>1</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>17</v>
-      </c>
-      <c r="B55" t="s">
-        <v>20</v>
-      </c>
-      <c r="C55" s="9">
-        <v>1</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>17</v>
-      </c>
-      <c r="B56" t="s">
-        <v>20</v>
-      </c>
-      <c r="C56" s="9">
-        <v>1</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>17</v>
-      </c>
-      <c r="B57" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="9">
-        <v>1</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>17</v>
-      </c>
-      <c r="B58" t="s">
-        <v>20</v>
-      </c>
-      <c r="C58" s="9">
-        <v>1</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>17</v>
-      </c>
-      <c r="B59" t="s">
-        <v>20</v>
-      </c>
-      <c r="C59" s="9">
-        <v>1</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>17</v>
-      </c>
-      <c r="B60" t="s">
-        <v>20</v>
-      </c>
-      <c r="C60" s="9">
-        <v>1</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>17</v>
-      </c>
-      <c r="B61" t="s">
-        <v>20</v>
-      </c>
-      <c r="C61" s="9">
-        <v>1</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>17</v>
-      </c>
-      <c r="B62" t="s">
-        <v>20</v>
-      </c>
-      <c r="C62" s="9">
-        <v>1</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>17</v>
-      </c>
-      <c r="B63" t="s">
-        <v>20</v>
-      </c>
-      <c r="C63" s="9">
-        <v>1</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>17</v>
-      </c>
-      <c r="B64" t="s">
-        <v>20</v>
-      </c>
-      <c r="C64" s="9">
-        <v>1</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>17</v>
-      </c>
-      <c r="B65" t="s">
-        <v>20</v>
-      </c>
-      <c r="C65" s="9">
-        <v>1</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>17</v>
-      </c>
-      <c r="B66" t="s">
-        <v>20</v>
-      </c>
-      <c r="C66" s="9">
-        <v>1</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>17</v>
-      </c>
-      <c r="B67" t="s">
-        <v>20</v>
-      </c>
-      <c r="C67" s="9">
-        <v>1</v>
-      </c>
-      <c r="D67" s="8" t="s">
+      <c r="D19" s="10" t="s">
         <v>48</v>
       </c>
     </row>
